--- a/insert compo ordre.xlsx
+++ b/insert compo ordre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bevilaro\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2800B6A3-9F93-4F2E-B61E-122B8DEF9878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EAB358-FC65-4F48-AC3D-4AE338254ECC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" activeTab="1" xr2:uid="{AE96EF8C-B29E-4422-8A67-F5FA269D26C1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" xr2:uid="{AE96EF8C-B29E-4422-8A67-F5FA269D26C1}"/>
   </bookViews>
   <sheets>
     <sheet name="T_J_composition_ordre_com" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90351A38-0750-444F-B860-F91A133D061D}">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -426,11 +426,11 @@
       </c>
       <c r="C2">
         <f ca="1">(RANDBETWEEN(10,50)*1000)</f>
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(10,40)</f>
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -442,11 +442,11 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="0">(RANDBETWEEN(10,50)*1000)</f>
-        <v>28000</v>
+        <v>39000</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(10,40)</f>
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -458,11 +458,11 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>31000</v>
+        <v>36000</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -474,11 +474,11 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>49000</v>
+        <v>47000</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,11 +490,11 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -506,11 +506,11 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,11 +522,11 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>38000</v>
+        <v>45000</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,11 +538,11 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -554,11 +554,11 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>49000</v>
+        <v>44000</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,11 +570,11 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>46000</v>
+        <v>20000</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,11 +586,11 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>24000</v>
+        <v>40000</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,11 +602,11 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>50000</v>
+        <v>23000</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,11 +618,11 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>45000</v>
+        <v>13000</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,11 +634,11 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>38000</v>
+        <v>15000</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,11 +650,11 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>38000</v>
+        <v>39000</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,11 +666,11 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,11 +682,11 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>39000</v>
+        <v>29000</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,11 +698,11 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>44000</v>
+        <v>38000</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,11 +714,11 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>44000</v>
+        <v>28000</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -730,11 +730,11 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -746,11 +746,11 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>24000</v>
+        <v>41000</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -762,11 +762,11 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>19000</v>
+        <v>41000</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,11 +778,11 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -794,11 +794,11 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -810,11 +810,11 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>22000</v>
+        <v>49000</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>29000</v>
+        <v>11000</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
@@ -846,7 +846,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -858,11 +858,11 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -874,11 +874,11 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>38000</v>
+        <v>41000</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -890,11 +890,11 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -906,11 +906,11 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -922,11 +922,11 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,11 +938,11 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,11 +954,11 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -970,11 +970,11 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>47000</v>
+        <v>19000</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -986,11 +986,11 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>37000</v>
+        <v>12000</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,11 +1002,11 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>34000</v>
+        <v>46000</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,11 +1018,11 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1034,11 +1034,11 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>14000</v>
+        <v>49000</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1050,11 +1050,11 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1082,11 +1082,11 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,11 +1098,11 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>47000</v>
+        <v>14000</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,11 +1130,11 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1146,11 +1146,11 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>34000</v>
+        <v>17000</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1162,11 +1162,11 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>11000</v>
+        <v>32000</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,11 +1178,11 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1194,11 +1194,11 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1210,11 +1210,11 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>45000</v>
+        <v>42000</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1226,11 +1226,11 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>37000</v>
+        <v>16000</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1242,11 +1242,11 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1258,11 +1258,11 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>30000</v>
+        <v>49000</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,11 +1290,11 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1306,11 +1306,11 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>38000</v>
+        <v>12000</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1338,11 +1338,11 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1370,11 +1370,11 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>45000</v>
+        <v>26000</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1386,11 +1386,11 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>32000</v>
+        <v>14000</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1402,11 +1402,11 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,11 +1418,11 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>50000</v>
+        <v>49000</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>45000</v>
+        <v>47000</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
@@ -1450,11 +1450,11 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1466,11 +1466,11 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C130" ca="1" si="2">(RANDBETWEEN(10,50)*1000)</f>
-        <v>36000</v>
+        <v>31000</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D130" ca="1" si="3">RANDBETWEEN(10,40)</f>
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1482,11 +1482,11 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="2"/>
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,11 +1498,11 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="2"/>
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1514,11 +1514,11 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="2"/>
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1530,11 +1530,11 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="2"/>
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,11 +1546,11 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="2"/>
-        <v>15000</v>
+        <v>41000</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1562,11 +1562,11 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="2"/>
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="2"/>
-        <v>22000</v>
+        <v>42000</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="3"/>
@@ -1594,11 +1594,11 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="2"/>
-        <v>48000</v>
+        <v>42000</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1610,11 +1610,11 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="2"/>
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1626,11 +1626,11 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="2"/>
-        <v>46000</v>
+        <v>15000</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,11 +1642,11 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="2"/>
-        <v>27000</v>
+        <v>41000</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1674,11 +1674,11 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="2"/>
-        <v>42000</v>
+        <v>13000</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="2"/>
-        <v>37000</v>
+        <v>24000</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="3"/>
@@ -1706,11 +1706,11 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="2"/>
-        <v>44000</v>
+        <v>49000</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,11 +1722,11 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="2"/>
-        <v>41000</v>
+        <v>12000</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1738,11 +1738,11 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="2"/>
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,11 +1754,11 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="2"/>
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1770,11 +1770,11 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="2"/>
-        <v>44000</v>
+        <v>38000</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,11 +1786,11 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="2"/>
-        <v>43000</v>
+        <v>11000</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1802,11 +1802,11 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="2"/>
-        <v>36000</v>
+        <v>41000</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1818,11 +1818,11 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="2"/>
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1834,11 +1834,11 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="2"/>
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1850,11 +1850,11 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="2"/>
-        <v>38000</v>
+        <v>50000</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1866,11 +1866,11 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="2"/>
-        <v>48000</v>
+        <v>43000</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1882,11 +1882,11 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="2"/>
-        <v>41000</v>
+        <v>48000</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1898,11 +1898,11 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="2"/>
-        <v>47000</v>
+        <v>25000</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1914,11 +1914,11 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="2"/>
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1930,11 +1930,11 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="2"/>
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,11 +1946,11 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="2"/>
-        <v>39000</v>
+        <v>17000</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1978,11 +1978,11 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="2"/>
-        <v>42000</v>
+        <v>50000</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -1994,11 +1994,11 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="2"/>
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2010,11 +2010,11 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="2"/>
-        <v>14000</v>
+        <v>41000</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2026,11 +2026,11 @@
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="2"/>
-        <v>15000</v>
+        <v>48000</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2042,11 +2042,11 @@
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="2"/>
-        <v>15000</v>
+        <v>46000</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2058,11 +2058,11 @@
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="2"/>
-        <v>31000</v>
+        <v>19000</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2074,11 +2074,11 @@
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="2"/>
-        <v>50000</v>
+        <v>49000</v>
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2090,11 +2090,11 @@
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="2"/>
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2106,11 +2106,11 @@
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="2"/>
-        <v>34000</v>
+        <v>14000</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2122,11 +2122,11 @@
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="2"/>
-        <v>36000</v>
+        <v>39000</v>
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2138,11 +2138,11 @@
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="2"/>
-        <v>36000</v>
+        <v>45000</v>
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2154,11 +2154,11 @@
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="2"/>
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2170,11 +2170,11 @@
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="2"/>
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2186,11 +2186,11 @@
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="2"/>
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2202,11 +2202,11 @@
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="2"/>
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2218,11 +2218,11 @@
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="2"/>
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2234,11 +2234,11 @@
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="2"/>
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2250,11 +2250,11 @@
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="2"/>
-        <v>36000</v>
+        <v>16000</v>
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2266,11 +2266,11 @@
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="2"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2282,11 +2282,11 @@
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="2"/>
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2298,11 +2298,11 @@
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="2"/>
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2314,11 +2314,11 @@
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="2"/>
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="2"/>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="3"/>
@@ -2346,11 +2346,11 @@
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="2"/>
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2362,11 +2362,11 @@
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="2"/>
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2378,11 +2378,11 @@
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="2"/>
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2394,11 +2394,11 @@
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="2"/>
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="2"/>
-        <v>39000</v>
+        <v>41000</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="3"/>
@@ -2426,11 +2426,11 @@
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="2"/>
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2442,11 +2442,11 @@
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="2"/>
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2458,11 +2458,11 @@
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="2"/>
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2474,11 +2474,11 @@
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="2"/>
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2490,11 +2490,11 @@
       </c>
       <c r="C131">
         <f t="shared" ref="C131:C148" ca="1" si="4">(RANDBETWEEN(10,50)*1000)</f>
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="D131">
         <f t="shared" ref="D131:D148" ca="1" si="5">RANDBETWEEN(10,40)</f>
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2506,11 +2506,11 @@
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="4"/>
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="D132">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="4"/>
-        <v>31000</v>
+        <v>37000</v>
       </c>
       <c r="D133">
         <f t="shared" ca="1" si="5"/>
@@ -2538,11 +2538,11 @@
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="4"/>
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="D134">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2554,11 +2554,11 @@
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="4"/>
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="D135">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2570,11 +2570,11 @@
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="4"/>
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="D136">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2586,11 +2586,11 @@
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="4"/>
-        <v>49000</v>
+        <v>39000</v>
       </c>
       <c r="D137">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2602,11 +2602,11 @@
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="4"/>
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="D138">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2618,11 +2618,11 @@
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="4"/>
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="D139">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2634,11 +2634,11 @@
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="4"/>
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="D140">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2650,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF094594-BE27-4B31-89D1-70AD7773E6C9}">
   <dimension ref="A1:B194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
